--- a/Datos/Database by set/Set with text box/Xlsx sets/Arena League 2002 (PAL02).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Arena League 2002 (PAL02).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,154 +444,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arc Lightning</t>
+          <t>('Arc Lightning', ['{2}{R}', 'Sorcery', 'Arc Lightning deals 3 damage divided as you choose among one, two, or three targets.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{2}{R}</t>
+          <t>('Dauthi Slayer', ['{B}{B}', 'Creature — Dauthi Soldier', 'Shadow (This creature can block or be blocked by only creatures with shadow.)', 'Dauthi Slayer attacks each combat if able.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sorcery</t>
+          <t>('Island', ['Basic Land — Island', '({T}: Add {U}.)'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Arc Lightning deals 3 damage divided as you choose among one, two, or three targets.</t>
+          <t>('Mana Leak', ['{1}{U}', 'Instant', 'Counter target spell unless its controller pays {3}.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dauthi Slayer</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Creature — Dauthi Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Shadow (This creature can block or be blocked by only creatures with shadow.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Dauthi Slayer attacks each combat if able.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Island</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Basic Land — Island</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>({T}: Add {U}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Mana Leak</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>{1}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Counter target spell unless its controller pays {3}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Man-o'-War</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>{2}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Creature — Jellyfish</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>When Man-o’-War enters the battlefield, return target creature to its owner’s hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2/2</t>
+          <t>("Man-o'-War", ['{2}{U}', 'Creature — Jellyfish', 'When Man-o’-War enters the battlefield, return target creature to its owner’s hand.', '2/2'])</t>
         </is>
       </c>
     </row>
